--- a/semester 7/Manajemen Proyek Informatika/Kelompok 3/Cost & Budgeting - Prototyping Absen Jalan UNPAM dengan Metode Design Thinking.xlsx
+++ b/semester 7/Manajemen Proyek Informatika/Kelompok 3/Cost & Budgeting - Prototyping Absen Jalan UNPAM dengan Metode Design Thinking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\semester 7\Manajemen Proyek Informatika\Kelompok 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF95C3-DBE8-4497-A56B-73C0FE5806FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC706E-F325-4E3D-AC62-47218655A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{914FE437-CF63-47AE-862D-F9244C96CB36}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Roles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Project Manager</t>
   </si>
@@ -45,12 +42,6 @@
     <t>UI Designer</t>
   </si>
   <si>
-    <t>Jumlah Jam Kerja</t>
-  </si>
-  <si>
-    <t>Biaya per Jam</t>
-  </si>
-  <si>
     <t>Total Biaya</t>
   </si>
   <si>
@@ -67,6 +58,33 @@
   </si>
   <si>
     <t>Tanggal projek dibuat</t>
+  </si>
+  <si>
+    <t>Biaya Konsumsi</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Biaya Wawancara</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Total Biaya Projek</t>
+  </si>
+  <si>
+    <t>Biaya Per Hari</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
   </si>
 </sst>
 </file>
@@ -76,7 +94,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -97,19 +115,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,27 +164,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -485,168 +548,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C16A14B-FBB5-49A5-8D8C-A718615268E0}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45222</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12">
+        <f>SUM(E12,E17)</f>
+        <v>50075000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="C4" s="4">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="5">
+        <f>C7*D7</f>
+        <v>22000000</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>875000</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E11" si="0">C8*D8</f>
+        <v>7875000</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9">
+        <v>875000</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>10500000</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>875000</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>700000</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>2800000</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11">
+        <f>SUM(E7:E11)</f>
+        <v>46675000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
-        <v>45222</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C15" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5">
+        <f>C15*D15</f>
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
-        <v>35000</v>
-      </c>
-      <c r="F5" s="4">
-        <f>C5*E5</f>
-        <v>1540000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F6" s="4">
-        <f>C6*E6</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F7" s="4">
-        <f>C7*E7</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F8" s="4">
-        <f>C8*E8</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="E16" s="5">
+        <f>C16*D16</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="4">
-        <f>C9*E9</f>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5">
-        <f>SUM(F5:F9)</f>
-        <v>2950000</v>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="12">
+        <f>SUM(E15:E16)</f>
+        <v>3400000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/semester 7/Manajemen Proyek Informatika/Kelompok 3/Cost & Budgeting - Prototyping Absen Jalan UNPAM dengan Metode Design Thinking.xlsx
+++ b/semester 7/Manajemen Proyek Informatika/Kelompok 3/Cost & Budgeting - Prototyping Absen Jalan UNPAM dengan Metode Design Thinking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\semester 7\Manajemen Proyek Informatika\Kelompok 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC706E-F325-4E3D-AC62-47218655A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34457102-DDD2-4F4D-812A-5E894C56F1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{914FE437-CF63-47AE-862D-F9244C96CB36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Project Manager</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Biaya Konsumsi</t>
   </si>
   <si>
-    <t>Hari</t>
-  </si>
-  <si>
     <t>Keterangan</t>
   </si>
   <si>
@@ -85,6 +82,18 @@
   </si>
   <si>
     <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Vendor Developer</t>
+  </si>
+  <si>
+    <t>Biaya Server Per Tahun</t>
+  </si>
+  <si>
+    <t>Hari/Jumlah</t>
+  </si>
+  <si>
+    <t>Biaya Maintenance Per Bulan</t>
   </si>
 </sst>
 </file>
@@ -206,24 +215,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -548,224 +556,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C16A14B-FBB5-49A5-8D8C-A718615268E0}">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>45222</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10">
+        <f>SUM(E13,E21)</f>
+        <v>77975000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12">
-        <f>SUM(E12,E17)</f>
-        <v>50075000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="4">
+        <f>C7*D7</f>
+        <v>36000000</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="5">
-        <f>C7*D7</f>
-        <v>22000000</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>875000</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:E11" si="0">C8*D8</f>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:E12" si="0">C8*D8</f>
         <v>7875000</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>12</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>875000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>10500000</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>875000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>3500000</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>700000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>600000</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11">
-        <f>SUM(E7:E11)</f>
-        <v>46675000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="10">
+        <f>SUM(E7:E12)</f>
+        <v>67875000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4">
+        <f>C17*D17</f>
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18*D18</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f>C19*D19</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8">
+        <v>300000</v>
+      </c>
+      <c r="D20" s="7">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D15" s="8">
-        <v>22</v>
-      </c>
-      <c r="E15" s="5">
-        <f>C15*D15</f>
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <f>C16*D16</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="E20" s="4">
+        <f>C20*D20</f>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12">
-        <f>SUM(E15:E16)</f>
-        <v>3400000</v>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10">
+        <f>SUM(E17:E20)</f>
+        <v>10100000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
